--- a/results.xlsx
+++ b/results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>O3Class</t>
   </si>
@@ -39,13 +39,52 @@
     <t>Decision Tree (CORElearn)</t>
   </si>
   <si>
-    <t>KNN</t>
-  </si>
-  <si>
-    <t>Random Forest</t>
-  </si>
-  <si>
-    <t>KNN (k=53)</t>
+    <t>Glob_sevanje_max + Temperatura_lokacija_max + Temperatura_Krvavec_mean + Pritisk_min + Sunki_vetra_max + Pritisk_max + Hitrost_vetra_max + Vlaga_max + Padavine_mean + Temperatura_Krvavec_min + Padavine_sum + Pritisk_mean</t>
+  </si>
+  <si>
+    <t>0.7311072</t>
+  </si>
+  <si>
+    <t>0.7513181</t>
+  </si>
+  <si>
+    <t>Glob_sevanje_max + Pritisk_max + Month + Postaja + PM10Class + Year + Sunki_vetra_mean + Temperatura_Krvavec_min + Vlaga_min</t>
+  </si>
+  <si>
+    <t>0.7618629</t>
+  </si>
+  <si>
+    <t>0.7838313</t>
+  </si>
+  <si>
+    <t>KNN (k=19)</t>
+  </si>
+  <si>
+    <t>Month + Temperatura_lokacija_max + Vlaga_max + Sunki_vetra_max + Pritisk_max + Sunki_vetra_min + Padavine_mean + Glob_sevanje_mean + Weekday + Temperatura_Krvavec_min + Sunki_vetra_mean + Temperatura_Krvavec_mean + Hitrost_vetra_max + Vlaga_min + Padavine_sum + PM10Class + Temperatura_Krvavec_max + Glob_sevanje_max + Season</t>
+  </si>
+  <si>
+    <t>Temperatura_lokacija_max + Hitrost_vetra_min + O3Class + Month + Year + Padavine_sum + Temperatura_lokacija_mean + Postaja + Sunki_vetra_min + Pritisk_max + Temperatura_Krvavec_mean + Pritisk_min + Sunki_vetra_mean + Padavine_mean</t>
+  </si>
+  <si>
+    <t>0.9156415</t>
+  </si>
+  <si>
+    <t>0.9077329</t>
+  </si>
+  <si>
+    <t>Month + Postaja + Sunki_vetra_max + Padavine_sum + Vlaga_max + Padavine_mean + Year + Pritisk_max</t>
+  </si>
+  <si>
+    <t>0.8892794</t>
+  </si>
+  <si>
+    <t>0.9147627</t>
+  </si>
+  <si>
+    <t>KNN (k=30)</t>
+  </si>
+  <si>
+    <t>Temperatura_lokacija_max + Temperatura_Krvavec_max + Sunki_vetra_min + Hitrost_vetra_min + Temperatura_lokacija_min + Temperatura_Krvavec_mean + Glob_sevanje_mean + Postaja + Padavine_mean + Glob_sevanje_max + Padavine_sum + Temperatura_lokacija_mean + Temperatura_Krvavec_min + Hitrost_vetra_mean + Hitrost_vetra_max + O3Class + Pritisk_mean + Year + Month + Vlaga_min + Vlaga_max + Pritisk_min + Sunki_vetra_max + Sunki_vetra_mean</t>
   </si>
 </sst>
 </file>
@@ -132,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -148,6 +187,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,17 +474,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="219.42578125" customWidth="1"/>
+    <col min="3" max="3" width="237.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -453,92 +498,111 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-    </row>
+        <v>20</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
